--- a/tests/test_spot_checks.xlsx
+++ b/tests/test_spot_checks.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$10</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t xml:space="preserve">Town</t>
   </si>
@@ -147,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margins of Error</t>
   </si>
   <si>
     <t xml:space="preserve">Xden</t>
@@ -347,22 +354,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,14 +432,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="n">
         <f aca="false">SQRT((J2)^2+(K2)^2+(L2)^2+(M2)^2)</f>
-        <v>130.107647738325</v>
+        <v>58.309518948453</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,18 +619,18 @@
         <v>0.156155172522483</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">SUM(J9:M9)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">N9/J16</f>
-        <v>0</v>
+        <v>0.00329052969502408</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,35 +656,58 @@
         <v>0.162162162162162</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0046777445432735</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="0" t="n">
-        <v>1832</v>
+        <v>12460</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">SQRT((N2)^2 - ((O9)^2*(K16)^2)) / J16</f>
-        <v>0.071019458372448</v>
+        <v>0.0046777445432735</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,26 +768,6 @@
       </c>
       <c r="M23" s="0" t="n">
         <v>2160</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0" t="n">
-        <v>324</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>453</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <f aca="false">SQRT((J26)^2+(K26)^2)</f>
-        <v>556.942546408514</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0" t="n">
-        <v>4075</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>9877</v>
       </c>
     </row>
   </sheetData>
